--- a/teaching/traditional_assets/database/data/philippines/philippines_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/philippines/philippines_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,118 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0002500000000000002</v>
+        <v>0.0304</v>
       </c>
       <c r="E2">
-        <v>-0.0805</v>
+        <v>-0.00506</v>
       </c>
       <c r="G2">
-        <v>0.06356053972364689</v>
+        <v>0.05357421889532937</v>
       </c>
       <c r="H2">
-        <v>0.06356053972364689</v>
+        <v>0.05357421889532937</v>
       </c>
       <c r="I2">
-        <v>0.05681759724722161</v>
+        <v>0.04740574285863103</v>
       </c>
       <c r="J2">
-        <v>0.047056508841649</v>
+        <v>0.04019162993415164</v>
       </c>
       <c r="K2">
-        <v>70.973</v>
+        <v>57.138</v>
       </c>
       <c r="L2">
-        <v>0.2399511800960846</v>
+        <v>0.2125780360584257</v>
       </c>
       <c r="M2">
-        <v>29.227</v>
+        <v>38.194</v>
       </c>
       <c r="N2">
-        <v>0.03462094290452499</v>
+        <v>0.03103689257272875</v>
       </c>
       <c r="O2">
-        <v>0.41180448903104</v>
+        <v>0.6684518184045645</v>
       </c>
       <c r="P2">
-        <v>29.227</v>
+        <v>25.194</v>
       </c>
       <c r="Q2">
-        <v>0.03462094290452499</v>
+        <v>0.02047294002925402</v>
       </c>
       <c r="R2">
-        <v>0.41180448903104</v>
+        <v>0.4409324792607372</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.3403675970047651</v>
       </c>
       <c r="U2">
-        <v>144.902</v>
+        <v>121.332</v>
       </c>
       <c r="V2">
-        <v>0.1716441601516228</v>
+        <v>0.09859580692345198</v>
       </c>
       <c r="W2">
-        <v>0.02348379144394368</v>
+        <v>0.02401574803149606</v>
       </c>
       <c r="X2">
-        <v>0.03219080414814125</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="Y2">
-        <v>-0.008707012704197568</v>
+        <v>0.003937759961901866</v>
       </c>
       <c r="Z2">
-        <v>0.2525734663997424</v>
+        <v>0.309650588113314</v>
       </c>
       <c r="AA2">
-        <v>0.004248560728682261</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.03203737445536751</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="AC2">
-        <v>-0.03001228864222991</v>
+        <v>-0.0200779880695942</v>
       </c>
       <c r="AD2">
-        <v>633</v>
+        <v>268.93</v>
       </c>
       <c r="AE2">
-        <v>30.51217134309772</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>663.5121713430977</v>
+        <v>268.93</v>
       </c>
       <c r="AG2">
-        <v>518.6101713430977</v>
+        <v>147.598</v>
       </c>
       <c r="AH2">
-        <v>0.4400788054606131</v>
+        <v>0.1793428607630391</v>
       </c>
       <c r="AI2">
-        <v>0.4244298917419446</v>
+        <v>0.240293287728271</v>
       </c>
       <c r="AJ2">
-        <v>0.3805446879164315</v>
+        <v>0.1070949166955691</v>
       </c>
       <c r="AK2">
-        <v>0.3656303642800751</v>
+        <v>0.1479172053291002</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="AM2">
-        <v>-4.17</v>
+        <v>-3.203</v>
       </c>
       <c r="AN2">
-        <v>24.43260768874479</v>
+        <v>17.02088607594937</v>
+      </c>
+      <c r="AO2">
+        <v>76.29940119760478</v>
       </c>
       <c r="AP2">
-        <v>20.01737576590619</v>
+        <v>9.341645569620253</v>
       </c>
       <c r="AQ2">
-        <v>-3.645083932853717</v>
+        <v>-3.978145488604433</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0252</v>
+        <v>6e-05</v>
       </c>
       <c r="E3">
-        <v>-0.0344</v>
+        <v>-0.0108</v>
       </c>
       <c r="G3">
-        <v>0.6460481099656358</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="H3">
-        <v>0.6460481099656358</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="I3">
-        <v>0.5223367697594501</v>
+        <v>0.4847328244274809</v>
       </c>
       <c r="J3">
-        <v>0.4068199841395717</v>
+        <v>0.3557756013250756</v>
       </c>
       <c r="K3">
-        <v>16.2</v>
+        <v>11.7</v>
       </c>
       <c r="L3">
-        <v>0.556701030927835</v>
+        <v>0.4465648854961832</v>
       </c>
       <c r="M3">
-        <v>9.1</v>
+        <v>13</v>
       </c>
       <c r="N3">
-        <v>0.03229240596167494</v>
+        <v>0.04965622612681436</v>
       </c>
       <c r="O3">
-        <v>0.5617283950617284</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="P3">
-        <v>9.1</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.03229240596167494</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.5617283950617284</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>68.90000000000001</v>
+        <v>42.2</v>
       </c>
       <c r="V3">
-        <v>0.244499645138396</v>
+        <v>0.1611917494270435</v>
       </c>
       <c r="W3">
-        <v>0.1497227356746765</v>
+        <v>0.1134820562560621</v>
       </c>
       <c r="X3">
-        <v>0.02978521517666172</v>
+        <v>0.02011631620898607</v>
       </c>
       <c r="Y3">
-        <v>0.1199375204980148</v>
+        <v>0.093365740047076</v>
       </c>
       <c r="Z3">
-        <v>0.6568848758465011</v>
+        <v>0.7660818713450295</v>
       </c>
       <c r="AA3">
-        <v>0.2672338947733981</v>
+        <v>0.2725532384420171</v>
       </c>
       <c r="AB3">
-        <v>0.02978521517666172</v>
+        <v>0.02014208982312409</v>
       </c>
       <c r="AC3">
-        <v>0.2374486795967364</v>
+        <v>0.252411148618893</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG3">
-        <v>-68.90000000000001</v>
+        <v>-40.87</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.005054535780792764</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.01226597805035507</v>
       </c>
       <c r="AJ3">
-        <v>-0.3236261155472053</v>
+        <v>-0.1849907210428643</v>
       </c>
       <c r="AK3">
-        <v>-2.014619883040937</v>
+        <v>-0.6170919522874831</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="AM3">
-        <v>-4.17</v>
+        <v>-3.203</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.08417721518987342</v>
+      </c>
+      <c r="AO3">
+        <v>76.04790419161675</v>
       </c>
       <c r="AP3">
-        <v>-3.785714285714286</v>
+        <v>-2.586708860759494</v>
       </c>
       <c r="AQ3">
-        <v>-3.645083932853717</v>
+        <v>-3.965032781767093</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Citystate Savings Bank, Inc. (PSE:CSB)</t>
+          <t>Ferronoux Holdings, Inc. (PSE:FERRO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -852,26 +858,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0124</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4">
-        <v>0.01617690310891941</v>
+        <v>-0</v>
       </c>
       <c r="J4">
-        <v>0.01617690310891941</v>
+        <v>-0</v>
       </c>
       <c r="K4">
-        <v>-1.05</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="L4">
-        <v>-0.2151639344262295</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -895,67 +898,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>7.23</v>
+        <v>0.012</v>
       </c>
       <c r="V4">
-        <v>0.432934131736527</v>
+        <v>0.0005405405405405405</v>
       </c>
       <c r="W4">
-        <v>-0.08139534883720931</v>
+        <v>-0.03243243243243243</v>
       </c>
       <c r="X4">
-        <v>0.03060173363527038</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="Y4">
-        <v>-0.1119970824724797</v>
+        <v>-0.05251042050202663</v>
       </c>
       <c r="Z4">
-        <v>0.6639199640958885</v>
+        <v>-0.009273570324574961</v>
       </c>
       <c r="AA4">
-        <v>0.01074016893125644</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03131034854582877</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="AC4">
-        <v>-0.02057017961457233</v>
+        <v>-0.0200779880695942</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.840283564142366</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.840283564142366</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-5.389716435857634</v>
+        <v>-0.012</v>
       </c>
       <c r="AH4">
-        <v>0.0992586525322378</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.1265644893391673</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.4765323880070486</v>
+        <v>-0.0005408328826392645</v>
       </c>
       <c r="AK4">
-        <v>-0.7372787099935091</v>
+        <v>-0.004497751124437781</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>-12.05753117641529</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +963,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ferronoux Holdings, Inc. (PSE:FERRO)</t>
+          <t>Citystate Savings Bank, Inc. (PSE:CSB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,10 +972,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.482</v>
-      </c>
-      <c r="E5">
-        <v>-0.601</v>
+        <v>0.0505</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -993,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.008</v>
+        <v>0.305</v>
       </c>
       <c r="L5">
-        <v>0.1311475409836066</v>
+        <v>0.04951298701298701</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1020,31 +1014,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.002</v>
+        <v>4.13</v>
       </c>
       <c r="V5">
-        <v>0.0001015228426395939</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="W5">
-        <v>0.001335559265442404</v>
+        <v>0.02401574803149606</v>
       </c>
       <c r="X5">
-        <v>0.02978521517666172</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="Y5">
-        <v>-0.02844965591121931</v>
+        <v>0.003937759961901866</v>
       </c>
       <c r="Z5">
-        <v>0.01018533978961429</v>
+        <v>1.271938880858972</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.02978521517666172</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="AC5">
-        <v>-0.02978521517666172</v>
+        <v>-0.0200779880695942</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1056,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-0.002</v>
+        <v>-4.13</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1065,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.0001015331505736623</v>
+        <v>-0.3043478260869565</v>
       </c>
       <c r="AK5">
-        <v>-0.0007727975270479134</v>
+        <v>-0.4503816793893129</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1085,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Philippine Savings Bank (PSE:PSB)</t>
+          <t>Prime Media Holdings, Inc. (PSE:PRIM)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1094,10 +1088,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.07679999999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.121</v>
+        <v>0.0133</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1106,103 +1097,94 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.005489153687659227</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.004984078481456973</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>54.6</v>
+        <v>-0.015</v>
       </c>
       <c r="L6">
-        <v>0.2381160052333188</v>
+        <v>-0.2631578947368421</v>
       </c>
       <c r="M6">
-        <v>20.1</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.04636678200692042</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.3681318681318682</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>20.1</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.04636678200692042</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.3681318681318682</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>62.3</v>
+        <v>0.196</v>
       </c>
       <c r="V6">
-        <v>0.1437139561707036</v>
+        <v>0.01568</v>
       </c>
       <c r="W6">
-        <v>0.1234735413839892</v>
+        <v>0.004934210526315789</v>
       </c>
       <c r="X6">
-        <v>0.03377987466101214</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="Y6">
-        <v>0.08969366672297702</v>
+        <v>-0.01514377754327841</v>
       </c>
       <c r="Z6">
-        <v>0.506620886188377</v>
+        <v>-0.02030637691485572</v>
       </c>
       <c r="AA6">
-        <v>0.002525038257108151</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>0.03276440036490626</v>
+        <v>0.0200779880695942</v>
       </c>
       <c r="AC6">
-        <v>-0.03023936210779811</v>
+        <v>-0.0200779880695942</v>
       </c>
       <c r="AD6">
-        <v>206.3</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>27.4066852970987</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>233.7066852970987</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>171.4066852970987</v>
+        <v>-0.196</v>
       </c>
       <c r="AH6">
-        <v>0.3502762943585196</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.2600767266936482</v>
+        <v>-0</v>
       </c>
       <c r="AJ6">
-        <v>0.2833605404987592</v>
+        <v>-0.0159297789336801</v>
       </c>
       <c r="AK6">
-        <v>0.2049567321540737</v>
+        <v>0.06210392902408111</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>30.60830860534125</v>
-      </c>
-      <c r="AP6">
-        <v>25.43125894615708</v>
       </c>
     </row>
     <row r="7">
@@ -1213,7 +1195,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Makati Finance Corporation (PSE:MFIN)</t>
+          <t>Philippine Savings Bank (PSE:PSB)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1222,10 +1204,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0278</v>
+        <v>0.0475</v>
       </c>
       <c r="E7">
-        <v>-0.0805</v>
+        <v>0.00068</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1234,34 +1216,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.05638173294847317</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03894069104417894</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.355</v>
+        <v>45</v>
       </c>
       <c r="L7">
-        <v>0.1397637795275591</v>
+        <v>0.1923899102180419</v>
       </c>
       <c r="M7">
-        <v>0.027</v>
+        <v>25.1</v>
       </c>
       <c r="N7">
-        <v>0.002093023255813953</v>
+        <v>0.05174190888476603</v>
       </c>
       <c r="O7">
-        <v>0.07605633802816902</v>
+        <v>0.5577777777777778</v>
       </c>
       <c r="P7">
-        <v>0.027</v>
+        <v>25.1</v>
       </c>
       <c r="Q7">
-        <v>0.002093023255813953</v>
+        <v>0.05174190888476603</v>
       </c>
       <c r="R7">
-        <v>0.07605633802816902</v>
+        <v>0.5577777777777778</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1270,67 +1252,61 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.38</v>
+        <v>72.2</v>
       </c>
       <c r="V7">
-        <v>0.1069767441860465</v>
+        <v>0.1488352916924345</v>
       </c>
       <c r="W7">
-        <v>0.03825431034482759</v>
+        <v>0.06767935027823734</v>
       </c>
       <c r="X7">
-        <v>0.03709948923215925</v>
+        <v>0.02400503278470608</v>
       </c>
       <c r="Y7">
-        <v>0.00115482111266834</v>
+        <v>0.04367431749353125</v>
       </c>
       <c r="Z7">
-        <v>0.1533635649526849</v>
+        <v>0.2891581159599456</v>
       </c>
       <c r="AA7">
-        <v>0.005972083200256372</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03741807153780845</v>
+        <v>0.02441938114446802</v>
       </c>
       <c r="AC7">
-        <v>-0.03144598833755208</v>
+        <v>-0.02441938114446802</v>
       </c>
       <c r="AD7">
-        <v>12.2</v>
+        <v>252.5</v>
       </c>
       <c r="AE7">
-        <v>0.5339519915543907</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>12.73395199155439</v>
+        <v>252.5</v>
       </c>
       <c r="AG7">
-        <v>11.35395199155439</v>
+        <v>180.3</v>
       </c>
       <c r="AH7">
-        <v>0.4967611703318256</v>
+        <v>0.3423264642082429</v>
       </c>
       <c r="AI7">
-        <v>0.5601292725648854</v>
+        <v>0.259800390986727</v>
       </c>
       <c r="AJ7">
-        <v>0.4681279156282661</v>
+        <v>0.2709648331830478</v>
       </c>
       <c r="AK7">
-        <v>0.5317026092427736</v>
+        <v>0.2004001333777926</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>48.8</v>
-      </c>
-      <c r="AP7">
-        <v>45.41580796621756</v>
       </c>
     </row>
     <row r="8">
@@ -1341,7 +1317,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BDO Leasing and Finance, Inc. (PSE:BLFI)</t>
+          <t>Makati Finance Corporation (PSE:MFIN)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1350,10 +1326,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0119</v>
+        <v>-0.0488</v>
       </c>
       <c r="E8">
-        <v>-0.38</v>
+        <v>-0.235</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1362,88 +1338,91 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.004172237523061744</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.002468813651577225</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.86</v>
+        <v>0.206</v>
       </c>
       <c r="L8">
-        <v>0.02876254180602007</v>
+        <v>0.08442622950819671</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>0.067</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.004466666666666667</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0.325242718446602</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>0.067</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.004466666666666667</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.325242718446602</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>5.09</v>
+        <v>1.6</v>
       </c>
       <c r="V8">
-        <v>0.06394472361809045</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="W8">
-        <v>0.008713272543059777</v>
+        <v>0.0206</v>
       </c>
       <c r="X8">
-        <v>0.06843745756560543</v>
+        <v>0.02767287699596824</v>
       </c>
       <c r="Y8">
-        <v>-0.05972418502254565</v>
+        <v>-0.007072876995968237</v>
       </c>
       <c r="Z8">
-        <v>0.04640974445885919</v>
+        <v>0.117195004803074</v>
       </c>
       <c r="AA8">
-        <v>0.0001145770106862421</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03692228039937379</v>
+        <v>0.02875774191106082</v>
       </c>
       <c r="AC8">
-        <v>-0.03680770338868754</v>
+        <v>-0.02875774191106082</v>
       </c>
       <c r="AD8">
-        <v>414.5</v>
+        <v>15.1</v>
       </c>
       <c r="AE8">
-        <v>0.7312504903022694</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>415.2312504903023</v>
+        <v>15.1</v>
       </c>
       <c r="AG8">
-        <v>410.1412504903023</v>
+        <v>13.5</v>
       </c>
       <c r="AH8">
-        <v>0.8391370797193416</v>
+        <v>0.5016611295681063</v>
       </c>
       <c r="AI8">
-        <v>0.7958719170072417</v>
+        <v>0.5852713178294574</v>
       </c>
       <c r="AJ8">
-        <v>0.8374651922411911</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AK8">
-        <v>0.7938608272201851</v>
+        <v>0.5578512396694215</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1451,11 +1430,127 @@
       <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AN8">
-        <v>1529.520295202952</v>
-      </c>
-      <c r="AP8">
-        <v>1513.436348672702</v>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GMA Holdings, Inc. (PSE:GMAP)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.467</v>
+      </c>
+      <c r="E9">
+        <v>0.09050000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="J9">
+        <v>0.6293007769145395</v>
+      </c>
+      <c r="K9">
+        <v>0.026</v>
+      </c>
+      <c r="L9">
+        <v>0.4905660377358491</v>
+      </c>
+      <c r="M9">
+        <v>0.027</v>
+      </c>
+      <c r="N9">
+        <v>6.485707422531828e-05</v>
+      </c>
+      <c r="O9">
+        <v>1.038461538461539</v>
+      </c>
+      <c r="P9">
+        <v>0.027</v>
+      </c>
+      <c r="Q9">
+        <v>6.485707422531828e-05</v>
+      </c>
+      <c r="R9">
+        <v>1.038461538461539</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.994</v>
+      </c>
+      <c r="V9">
+        <v>0.002387701177035791</v>
+      </c>
+      <c r="W9">
+        <v>1.368421052631579</v>
+      </c>
+      <c r="X9">
+        <v>0.0200779880695942</v>
+      </c>
+      <c r="Y9">
+        <v>1.348343064561985</v>
+      </c>
+      <c r="Z9">
+        <v>-0.1031128404669261</v>
+      </c>
+      <c r="AA9">
+        <v>-0.06488899061570154</v>
+      </c>
+      <c r="AB9">
+        <v>0.0200779880695942</v>
+      </c>
+      <c r="AC9">
+        <v>-0.08496697868529574</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>-0.994</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>-0.002393415939090695</v>
+      </c>
+      <c r="AK9">
+        <v>1.024742268041237</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
